--- a/build_export_nb.xlsx
+++ b/build_export_nb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxinzhao/Desktop/atv-qu/smokeManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48080BA7-6ADC-8B4F-98B3-1D9060FE086A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805FC22F-561C-3A49-ADB7-F40DFE0AEAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="760" windowWidth="13260" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="2440" windowWidth="25180" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -304,24 +304,6 @@
     <t>{.2.6.1}</t>
   </si>
   <si>
-    <t>{.2.6.3 }</t>
-  </si>
-  <si>
-    <t>{.2.6.4 }</t>
-  </si>
-  <si>
-    <t>{.2.6.5 }</t>
-  </si>
-  <si>
-    <t>{.2.6.6 }</t>
-  </si>
-  <si>
-    <t>{.2.6.7 }</t>
-  </si>
-  <si>
-    <t>{.2.6.8 }</t>
-  </si>
-  <si>
     <t>{.2.7}</t>
   </si>
   <si>
@@ -376,6 +358,30 @@
   </si>
   <si>
     <t>{.buildNumber}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.2.6.3}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.2.6.4}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.2.6.5}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.2.6.6}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.2.6.7}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.2.6.8}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -740,7 +746,7 @@
   <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -935,13 +941,13 @@
     </row>
     <row r="2" spans="1:59" s="2" customFormat="1" ht="44" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>59</v>
@@ -1049,67 +1055,67 @@
         <v>93</v>
       </c>
       <c r="AM2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/build_export_nb.xlsx
+++ b/build_export_nb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxinzhao/Desktop/atv-qu/smokeManagement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13194\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805FC22F-561C-3A49-ADB7-F40DFE0AEAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E286B8-D778-42CF-BAF4-20FEF8D4255E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="2440" windowWidth="25180" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="129">
   <si>
     <t>社区名</t>
   </si>
@@ -382,6 +382,50 @@
   </si>
   <si>
     <t>{.2.6.8}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅楼号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造时间（年）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑层数（层）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>常住人口（人）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>六十岁以上常住人口（人）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.unitsNumber}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.buildTime}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.numberDepartment}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.numberPeople}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.numberOver60People}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -389,7 +433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -429,6 +473,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -452,7 +513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -466,6 +527,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,24 +810,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG2"/>
+  <dimension ref="A1:BM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.4609375" customWidth="1"/>
+    <col min="2" max="2" width="15.84375" customWidth="1"/>
+    <col min="3" max="3" width="26.4609375" customWidth="1"/>
+    <col min="4" max="4" width="18.15234375" customWidth="1"/>
+    <col min="5" max="5" width="14.15234375" customWidth="1"/>
+    <col min="6" max="6" width="14.3046875" customWidth="1"/>
+    <col min="7" max="7" width="13.84375" customWidth="1"/>
+    <col min="8" max="12" width="18.15234375" customWidth="1"/>
+    <col min="13" max="13" width="32.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1" ht="42" customHeight="1">
+    <row r="1" spans="1:65" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -782,164 +851,182 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59" s="2" customFormat="1" ht="44" customHeight="1">
+    <row r="2" spans="1:65" s="2" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>109</v>
       </c>
@@ -961,160 +1048,178 @@
       <c r="G2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>108</v>
       </c>
     </row>

--- a/build_export_nb.xlsx
+++ b/build_export_nb.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13194\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E286B8-D778-42CF-BAF4-20FEF8D4255E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,6 +37,24 @@
     <t>街道</t>
   </si>
   <si>
+    <t>住宅楼号</t>
+  </si>
+  <si>
+    <t>单元数量</t>
+  </si>
+  <si>
+    <t>建造时间（年）</t>
+  </si>
+  <si>
+    <t>建筑层数（层）</t>
+  </si>
+  <si>
+    <t>常住人口（人）</t>
+  </si>
+  <si>
+    <t>六十岁以上常住人口（人）</t>
+  </si>
+  <si>
     <t>2.1 存在外墙安全隐患的住宅数量</t>
   </si>
   <si>
@@ -199,6 +211,15 @@
     <t>2.10.5 其他</t>
   </si>
   <si>
+    <t>{.communityName}</t>
+  </si>
+  <si>
+    <t>{.courtName}</t>
+  </si>
+  <si>
+    <t>{.buildNumber}</t>
+  </si>
+  <si>
     <t>{.province}</t>
   </si>
   <si>
@@ -211,6 +232,21 @@
     <t>{.street}</t>
   </si>
   <si>
+    <t>{.unitsNumber}</t>
+  </si>
+  <si>
+    <t>{.buildTime}</t>
+  </si>
+  <si>
+    <t>{.numberDepartment}</t>
+  </si>
+  <si>
+    <t>{.numberPeople}</t>
+  </si>
+  <si>
+    <t>{.numberOver60People}</t>
+  </si>
+  <si>
     <t>{.2.1}</t>
   </si>
   <si>
@@ -247,7 +283,7 @@
     <t>{.2.3.5}</t>
   </si>
   <si>
-    <t>{.2.3.6 }</t>
+    <t>{.2.3.6}</t>
   </si>
   <si>
     <t>{.2.3.7}</t>
@@ -274,7 +310,7 @@
     <t>{.2.4.3}</t>
   </si>
   <si>
-    <t>{.2.4.4 }</t>
+    <t>{.2.4.4}</t>
   </si>
   <si>
     <t>{.2.4.5}</t>
@@ -304,6 +340,24 @@
     <t>{.2.6.1}</t>
   </si>
   <si>
+    <t>{.2.6.3}</t>
+  </si>
+  <si>
+    <t>{.2.6.4}</t>
+  </si>
+  <si>
+    <t>{.2.6.5}</t>
+  </si>
+  <si>
+    <t>{.2.6.6}</t>
+  </si>
+  <si>
+    <t>{.2.6.7}</t>
+  </si>
+  <si>
+    <t>{.2.6.8}</t>
+  </si>
+  <si>
     <t>{.2.7}</t>
   </si>
   <si>
@@ -347,93 +401,19 @@
   </si>
   <si>
     <t>{.2.10.5}</t>
-  </si>
-  <si>
-    <t>{.communityName}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.courtName}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.buildNumber}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.2.6.3}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.2.6.4}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.2.6.5}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.2.6.6}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.2.6.7}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.2.6.8}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅楼号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单元数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造时间（年）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑层数（层）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>常住人口（人）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>六十岁以上常住人口（人）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.unitsNumber}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.buildTime}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.numberDepartment}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.numberPeople}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.numberOver60People}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -446,7 +426,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -454,22 +433,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -478,7 +441,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -486,20 +448,363 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -507,9 +812,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -529,24 +1076,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -804,32 +1395,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="27.4609375" customWidth="1"/>
-    <col min="2" max="2" width="15.84375" customWidth="1"/>
-    <col min="3" max="3" width="26.4609375" customWidth="1"/>
-    <col min="4" max="4" width="18.15234375" customWidth="1"/>
-    <col min="5" max="5" width="14.15234375" customWidth="1"/>
-    <col min="6" max="6" width="14.3046875" customWidth="1"/>
-    <col min="7" max="7" width="13.84375" customWidth="1"/>
-    <col min="8" max="12" width="18.15234375" customWidth="1"/>
-    <col min="13" max="13" width="32.23046875" customWidth="1"/>
+    <col min="1" max="1" width="27.4615384615385" customWidth="1"/>
+    <col min="2" max="2" width="15.8461538461538" customWidth="1"/>
+    <col min="3" max="3" width="26.4615384615385" customWidth="1"/>
+    <col min="4" max="4" width="18.1538461538462" customWidth="1"/>
+    <col min="5" max="5" width="14.1538461538462" customWidth="1"/>
+    <col min="6" max="6" width="14.3076923076923" customWidth="1"/>
+    <col min="7" max="7" width="13.8461538461538" customWidth="1"/>
+    <col min="8" max="12" width="18.1538461538462" customWidth="1"/>
+    <col min="13" max="13" width="32.2307692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:65">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -851,380 +1442,380 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="44" customHeight="1" spans="1:65">
+      <c r="A2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="BD2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="BE2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="BF2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="BG2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="BH2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:65" s="2" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="BI2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="BK2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="BL2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="BM2" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/build_export_nb.xlsx
+++ b/build_export_nb.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="24750" windowHeight="12080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="135">
   <si>
     <t>社区名</t>
   </si>
@@ -401,6 +402,24 @@
   </si>
   <si>
     <t>{.2.10.5}</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>{.indicatorName}</t>
+  </si>
+  <si>
+    <t>{.photoPath}</t>
+  </si>
+  <si>
+    <t>{.description}</t>
   </si>
 </sst>
 </file>
@@ -413,7 +432,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -431,29 +450,14 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -915,19 +919,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,151 +949,136 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1403,8 +1401,8 @@
   <sheetPr/>
   <dimension ref="A1:BM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="AY1" sqref="AY1:AY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="1"/>
@@ -1420,397 +1418,397 @@
     <col min="13" max="13" width="32.2307692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:65">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="42" customHeight="1" spans="1:65">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="44" customHeight="1" spans="1:65">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="4" customFormat="1" ht="44" customHeight="1" spans="1:65">
+      <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AL2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AM2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AN2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AO2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AP2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AR2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AS2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AT2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AU2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AV2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AW2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AX2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AY2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BA2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BB2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BC2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BD2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BE2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BF2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BG2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BH2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BI2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BJ2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BK2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BL2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BM2" s="4" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1818,4 +1816,207 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BM2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="19.6923076923077" customWidth="1"/>
+    <col min="2" max="2" width="13.2307692307692" customWidth="1"/>
+    <col min="3" max="3" width="11.3846153846154" customWidth="1"/>
+    <col min="4" max="4" width="13.9230769230769" customWidth="1"/>
+    <col min="5" max="5" width="18.7692307692308" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="15.6923076923077" customWidth="1"/>
+    <col min="8" max="8" width="24.3846153846154" customWidth="1"/>
+    <col min="9" max="9" width="15.9230769230769" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="44" customHeight="1" spans="1:65">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+    </row>
+    <row r="2" ht="44" customHeight="1" spans="1:65">
+      <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/build_export_nb.xlsx
+++ b/build_export_nb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" activeTab="1"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="137">
   <si>
     <t>社区名</t>
   </si>
@@ -56,6 +56,9 @@
     <t>六十岁以上常住人口（人）</t>
   </si>
   <si>
+    <t>位置</t>
+  </si>
+  <si>
     <t>2.1 存在外墙安全隐患的住宅数量</t>
   </si>
   <si>
@@ -246,6 +249,9 @@
   </si>
   <si>
     <t>{.numberOver60People}</t>
+  </si>
+  <si>
+    <t>{.location}</t>
   </si>
   <si>
     <t>{.2.1}</t>
@@ -1064,7 +1070,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1079,6 +1085,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1399,26 +1414,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BM2"/>
+  <dimension ref="A1:BN2"/>
   <sheetViews>
-    <sheetView topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="AY1" sqref="AY1:AY2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="27.4615384615385" customWidth="1"/>
-    <col min="2" max="2" width="15.8461538461538" customWidth="1"/>
-    <col min="3" max="3" width="26.4615384615385" customWidth="1"/>
-    <col min="4" max="4" width="18.1538461538462" customWidth="1"/>
-    <col min="5" max="5" width="14.1538461538462" customWidth="1"/>
-    <col min="6" max="6" width="14.3076923076923" customWidth="1"/>
-    <col min="7" max="7" width="13.8461538461538" customWidth="1"/>
-    <col min="8" max="12" width="18.1538461538462" customWidth="1"/>
-    <col min="13" max="13" width="32.2307692307692" customWidth="1"/>
+    <col min="1" max="1" width="27.4583333333333" customWidth="1"/>
+    <col min="2" max="2" width="15.85" customWidth="1"/>
+    <col min="3" max="3" width="26.4583333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.15" customWidth="1"/>
+    <col min="5" max="5" width="14.15" customWidth="1"/>
+    <col min="6" max="6" width="14.3083333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.85" customWidth="1"/>
+    <col min="8" max="12" width="18.15" customWidth="1"/>
+    <col min="13" max="13" width="32.2333333333333" customWidth="1"/>
+    <col min="14" max="14" width="23.4666666666667" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="42" customHeight="1" spans="1:65">
+    <row r="1" s="3" customFormat="1" ht="42" customHeight="1" spans="1:66">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1458,7 +1474,7 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -1614,202 +1630,208 @@
       <c r="BM1" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="BN1" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="44" customHeight="1" spans="1:65">
+    <row r="2" s="4" customFormat="1" ht="44" customHeight="1" spans="1:66">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="N2" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="O2" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AM2" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AO2" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AP2" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AQ2" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AR2" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AS2" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AT2" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AX2" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BC2" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BD2" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BE2" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BF2" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BG2" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BH2" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BI2" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BJ2" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BK2" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BL2" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BM2" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1823,21 +1845,21 @@
   <sheetPr/>
   <dimension ref="A1:BM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="17.6" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="19.6923076923077" customWidth="1"/>
-    <col min="2" max="2" width="13.2307692307692" customWidth="1"/>
-    <col min="3" max="3" width="11.3846153846154" customWidth="1"/>
-    <col min="4" max="4" width="13.9230769230769" customWidth="1"/>
-    <col min="5" max="5" width="18.7692307692308" customWidth="1"/>
+    <col min="1" max="1" width="19.6916666666667" customWidth="1"/>
+    <col min="2" max="2" width="13.2333333333333" customWidth="1"/>
+    <col min="3" max="3" width="11.3833333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.925" customWidth="1"/>
+    <col min="5" max="5" width="18.7666666666667" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="15.6923076923077" customWidth="1"/>
-    <col min="8" max="8" width="24.3846153846154" customWidth="1"/>
-    <col min="9" max="9" width="15.9230769230769" customWidth="1"/>
+    <col min="7" max="7" width="15.6916666666667" customWidth="1"/>
+    <col min="8" max="8" width="24.3833333333333" customWidth="1"/>
+    <col min="9" max="9" width="15.925" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1864,13 +1886,13 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1930,34 +1952,34 @@
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:65">
       <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
